--- a/covidSP_09set2020.xlsx
+++ b/covidSP_09set2020.xlsx
@@ -16,57 +16,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="20">
   <si>
-    <t>regiao</t>
-  </si>
-  <si>
-    <t>estado</t>
-  </si>
-  <si>
-    <t>municipio</t>
-  </si>
-  <si>
-    <t>coduf</t>
-  </si>
-  <si>
-    <t>codmun</t>
-  </si>
-  <si>
-    <t>codRegiaoSaude</t>
-  </si>
-  <si>
-    <t>nomeRegiaoSaude</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>semanaEpi</t>
-  </si>
-  <si>
-    <t>populacaoTCU2019</t>
-  </si>
-  <si>
-    <t>casosAcumulado</t>
-  </si>
-  <si>
-    <t>casosNovos</t>
-  </si>
-  <si>
-    <t>obitosAcumulado</t>
-  </si>
-  <si>
-    <t>obitosNovos</t>
-  </si>
-  <si>
-    <t>Recuperadosnovos</t>
-  </si>
-  <si>
-    <t>emAcompanhamentoNovos</t>
-  </si>
-  <si>
-    <t>interior/metropolitana</t>
-  </si>
-  <si>
     <t>Sudeste</t>
   </si>
   <si>
@@ -74,6 +23,57 @@
   </si>
   <si>
     <t>35</t>
+  </si>
+  <si>
+    <t>Colunas1</t>
+  </si>
+  <si>
+    <t>Colunas2</t>
+  </si>
+  <si>
+    <t>Colunas3</t>
+  </si>
+  <si>
+    <t>Colunas4</t>
+  </si>
+  <si>
+    <t>Colunas5</t>
+  </si>
+  <si>
+    <t>Colunas6</t>
+  </si>
+  <si>
+    <t>Colunas7</t>
+  </si>
+  <si>
+    <t>Colunas8</t>
+  </si>
+  <si>
+    <t>Colunas9</t>
+  </si>
+  <si>
+    <t>Colunas10</t>
+  </si>
+  <si>
+    <t>Colunas11</t>
+  </si>
+  <si>
+    <t>Colunas12</t>
+  </si>
+  <si>
+    <t>Colunas13</t>
+  </si>
+  <si>
+    <t>Colunas14</t>
+  </si>
+  <si>
+    <t>Colunas15</t>
+  </si>
+  <si>
+    <t>Colunas16</t>
+  </si>
+  <si>
+    <t>Colunas17</t>
   </si>
 </sst>
 </file>
@@ -133,25 +133,24 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:Q199" totalsRowShown="0">
-  <autoFilter ref="A1:Q199"/>
   <tableColumns count="17">
-    <tableColumn id="1" name="regiao"/>
-    <tableColumn id="2" name="estado"/>
-    <tableColumn id="3" name="municipio"/>
-    <tableColumn id="4" name="coduf"/>
-    <tableColumn id="5" name="codmun"/>
-    <tableColumn id="6" name="codRegiaoSaude"/>
-    <tableColumn id="7" name="nomeRegiaoSaude"/>
-    <tableColumn id="8" name="data"/>
-    <tableColumn id="9" name="semanaEpi"/>
-    <tableColumn id="10" name="populacaoTCU2019"/>
-    <tableColumn id="11" name="casosAcumulado"/>
-    <tableColumn id="12" name="casosNovos"/>
-    <tableColumn id="13" name="obitosAcumulado"/>
-    <tableColumn id="14" name="obitosNovos"/>
-    <tableColumn id="15" name="Recuperadosnovos"/>
-    <tableColumn id="16" name="emAcompanhamentoNovos"/>
-    <tableColumn id="17" name="interior/metropolitana"/>
+    <tableColumn id="1" name="Colunas1"/>
+    <tableColumn id="2" name="Colunas2"/>
+    <tableColumn id="3" name="Colunas3"/>
+    <tableColumn id="4" name="Colunas4"/>
+    <tableColumn id="5" name="Colunas5"/>
+    <tableColumn id="6" name="Colunas6"/>
+    <tableColumn id="7" name="Colunas7"/>
+    <tableColumn id="8" name="Colunas8"/>
+    <tableColumn id="9" name="Colunas9"/>
+    <tableColumn id="10" name="Colunas10"/>
+    <tableColumn id="11" name="Colunas11"/>
+    <tableColumn id="12" name="Colunas12"/>
+    <tableColumn id="13" name="Colunas13"/>
+    <tableColumn id="14" name="Colunas14"/>
+    <tableColumn id="15" name="Colunas15"/>
+    <tableColumn id="16" name="Colunas16"/>
+    <tableColumn id="17" name="Colunas17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -438,8 +437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A184" workbookViewId="0">
-      <selection activeCell="T204" sqref="T204"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -449,66 +448,66 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="K1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="L1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="N1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="O1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="P1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="Q1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H2" s="1">
         <v>43886</v>
@@ -534,13 +533,13 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H3" s="1">
         <v>43887</v>
@@ -566,13 +565,13 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H4" s="1">
         <v>43888</v>
@@ -598,13 +597,13 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H5" s="1">
         <v>43889</v>
@@ -630,13 +629,13 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H6" s="1">
         <v>43890</v>
@@ -662,13 +661,13 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H7" s="1">
         <v>43891</v>
@@ -694,13 +693,13 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H8" s="1">
         <v>43892</v>
@@ -726,13 +725,13 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H9" s="1">
         <v>43893</v>
@@ -758,13 +757,13 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H10" s="1">
         <v>43894</v>
@@ -790,13 +789,13 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H11" s="1">
         <v>43895</v>
@@ -822,13 +821,13 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H12" s="1">
         <v>43896</v>
@@ -854,13 +853,13 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H13" s="1">
         <v>43897</v>
@@ -886,13 +885,13 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H14" s="1">
         <v>43898</v>
@@ -918,13 +917,13 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H15" s="1">
         <v>43899</v>
@@ -950,13 +949,13 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H16" s="1">
         <v>43900</v>
@@ -982,13 +981,13 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H17" s="1">
         <v>43901</v>
@@ -1014,13 +1013,13 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H18" s="1">
         <v>43902</v>
@@ -1046,13 +1045,13 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H19" s="1">
         <v>43903</v>
@@ -1078,13 +1077,13 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H20" s="1">
         <v>43904</v>
@@ -1110,13 +1109,13 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B21" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H21" s="1">
         <v>43905</v>
@@ -1142,13 +1141,13 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B22" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H22" s="1">
         <v>43906</v>
@@ -1174,13 +1173,13 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B23" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H23" s="1">
         <v>43907</v>
@@ -1206,13 +1205,13 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B24" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H24" s="1">
         <v>43908</v>
@@ -1238,13 +1237,13 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B25" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H25" s="1">
         <v>43909</v>
@@ -1270,13 +1269,13 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B26" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H26" s="1">
         <v>43910</v>
@@ -1302,13 +1301,13 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B27" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D27" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H27" s="1">
         <v>43911</v>
@@ -1334,13 +1333,13 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B28" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H28" s="1">
         <v>43912</v>
@@ -1366,13 +1365,13 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B29" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D29" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H29" s="1">
         <v>43913</v>
@@ -1398,13 +1397,13 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B30" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D30" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H30" s="1">
         <v>43914</v>
@@ -1430,13 +1429,13 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B31" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H31" s="1">
         <v>43915</v>
@@ -1462,13 +1461,13 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B32" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D32" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H32" s="1">
         <v>43916</v>
@@ -1494,13 +1493,13 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B33" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D33" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H33" s="1">
         <v>43917</v>
@@ -1526,13 +1525,13 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B34" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H34" s="1">
         <v>43918</v>
@@ -1558,13 +1557,13 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B35" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D35" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H35" s="1">
         <v>43919</v>
@@ -1590,13 +1589,13 @@
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B36" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D36" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H36" s="1">
         <v>43920</v>
@@ -1622,13 +1621,13 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B37" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D37" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H37" s="1">
         <v>43921</v>
@@ -1654,13 +1653,13 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B38" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D38" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H38" s="1">
         <v>43922</v>
@@ -1686,13 +1685,13 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B39" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D39" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H39" s="1">
         <v>43923</v>
@@ -1718,13 +1717,13 @@
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B40" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D40" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H40" s="1">
         <v>43924</v>
@@ -1750,13 +1749,13 @@
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B41" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D41" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H41" s="1">
         <v>43925</v>
@@ -1782,13 +1781,13 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B42" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D42" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H42" s="1">
         <v>43926</v>
@@ -1814,13 +1813,13 @@
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B43" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D43" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H43" s="1">
         <v>43927</v>
@@ -1846,13 +1845,13 @@
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B44" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D44" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H44" s="1">
         <v>43928</v>
@@ -1878,13 +1877,13 @@
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B45" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D45" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H45" s="1">
         <v>43929</v>
@@ -1910,13 +1909,13 @@
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B46" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D46" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H46" s="1">
         <v>43930</v>
@@ -1942,13 +1941,13 @@
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B47" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D47" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H47" s="1">
         <v>43931</v>
@@ -1974,13 +1973,13 @@
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B48" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D48" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H48" s="1">
         <v>43932</v>
@@ -2006,13 +2005,13 @@
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B49" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D49" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H49" s="1">
         <v>43933</v>
@@ -2038,13 +2037,13 @@
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B50" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D50" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H50" s="1">
         <v>43934</v>
@@ -2070,13 +2069,13 @@
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B51" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D51" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H51" s="1">
         <v>43935</v>
@@ -2102,13 +2101,13 @@
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B52" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D52" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H52" s="1">
         <v>43936</v>
@@ -2134,13 +2133,13 @@
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B53" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D53" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H53" s="1">
         <v>43937</v>
@@ -2166,13 +2165,13 @@
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B54" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D54" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H54" s="1">
         <v>43938</v>
@@ -2198,13 +2197,13 @@
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B55" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D55" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H55" s="1">
         <v>43939</v>
@@ -2230,13 +2229,13 @@
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B56" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D56" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H56" s="1">
         <v>43940</v>
@@ -2262,13 +2261,13 @@
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B57" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D57" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H57" s="1">
         <v>43941</v>
@@ -2294,13 +2293,13 @@
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B58" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D58" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H58" s="1">
         <v>43942</v>
@@ -2326,13 +2325,13 @@
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B59" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D59" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H59" s="1">
         <v>43943</v>
@@ -2358,13 +2357,13 @@
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B60" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D60" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H60" s="1">
         <v>43944</v>
@@ -2390,13 +2389,13 @@
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B61" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D61" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H61" s="1">
         <v>43945</v>
@@ -2422,13 +2421,13 @@
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B62" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D62" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H62" s="1">
         <v>43946</v>
@@ -2454,13 +2453,13 @@
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B63" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D63" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H63" s="1">
         <v>43947</v>
@@ -2486,13 +2485,13 @@
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B64" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D64" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H64" s="1">
         <v>43948</v>
@@ -2518,13 +2517,13 @@
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B65" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D65" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H65" s="1">
         <v>43949</v>
@@ -2550,13 +2549,13 @@
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D66" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H66" s="1">
         <v>43950</v>
@@ -2582,13 +2581,13 @@
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B67" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D67" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H67" s="1">
         <v>43951</v>
@@ -2614,13 +2613,13 @@
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B68" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D68" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H68" s="1">
         <v>43952</v>
@@ -2646,13 +2645,13 @@
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B69" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D69" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H69" s="1">
         <v>43953</v>
@@ -2678,13 +2677,13 @@
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B70" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D70" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H70" s="1">
         <v>43954</v>
@@ -2710,13 +2709,13 @@
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B71" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D71" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H71" s="1">
         <v>43955</v>
@@ -2742,13 +2741,13 @@
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B72" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D72" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H72" s="1">
         <v>43956</v>
@@ -2774,13 +2773,13 @@
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B73" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D73" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H73" s="1">
         <v>43957</v>
@@ -2806,13 +2805,13 @@
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B74" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D74" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H74" s="1">
         <v>43958</v>
@@ -2838,13 +2837,13 @@
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B75" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D75" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H75" s="1">
         <v>43959</v>
@@ -2870,13 +2869,13 @@
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B76" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D76" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H76" s="1">
         <v>43960</v>
@@ -2902,13 +2901,13 @@
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B77" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D77" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H77" s="1">
         <v>43961</v>
@@ -2934,13 +2933,13 @@
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B78" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D78" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H78" s="1">
         <v>43962</v>
@@ -2966,13 +2965,13 @@
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B79" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D79" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H79" s="1">
         <v>43963</v>
@@ -2998,13 +2997,13 @@
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B80" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D80" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H80" s="1">
         <v>43964</v>
@@ -3030,13 +3029,13 @@
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B81" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D81" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H81" s="1">
         <v>43965</v>
@@ -3062,13 +3061,13 @@
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B82" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D82" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H82" s="1">
         <v>43966</v>
@@ -3094,13 +3093,13 @@
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B83" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D83" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H83" s="1">
         <v>43967</v>
@@ -3126,13 +3125,13 @@
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B84" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D84" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H84" s="1">
         <v>43968</v>
@@ -3158,13 +3157,13 @@
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B85" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D85" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H85" s="1">
         <v>43969</v>
@@ -3190,13 +3189,13 @@
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B86" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D86" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H86" s="1">
         <v>43970</v>
@@ -3222,13 +3221,13 @@
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B87" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D87" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H87" s="1">
         <v>43971</v>
@@ -3254,13 +3253,13 @@
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B88" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D88" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H88" s="1">
         <v>43972</v>
@@ -3286,13 +3285,13 @@
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B89" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D89" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H89" s="1">
         <v>43973</v>
@@ -3318,13 +3317,13 @@
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B90" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D90" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H90" s="1">
         <v>43974</v>
@@ -3350,13 +3349,13 @@
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B91" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D91" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H91" s="1">
         <v>43975</v>
@@ -3382,13 +3381,13 @@
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B92" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D92" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H92" s="1">
         <v>43976</v>
@@ -3414,13 +3413,13 @@
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B93" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D93" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H93" s="1">
         <v>43977</v>
@@ -3446,13 +3445,13 @@
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B94" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D94" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H94" s="1">
         <v>43978</v>
@@ -3478,13 +3477,13 @@
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B95" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D95" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H95" s="1">
         <v>43979</v>
@@ -3510,13 +3509,13 @@
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B96" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D96" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H96" s="1">
         <v>43980</v>
@@ -3542,13 +3541,13 @@
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B97" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D97" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H97" s="1">
         <v>43981</v>
@@ -3574,13 +3573,13 @@
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B98" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D98" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H98" s="1">
         <v>43982</v>
@@ -3606,13 +3605,13 @@
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B99" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D99" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H99" s="1">
         <v>43983</v>
@@ -3638,13 +3637,13 @@
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B100" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D100" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H100" s="1">
         <v>43984</v>
@@ -3670,13 +3669,13 @@
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B101" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D101" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H101" s="1">
         <v>43985</v>
@@ -3702,13 +3701,13 @@
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B102" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D102" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H102" s="1">
         <v>43986</v>
@@ -3734,13 +3733,13 @@
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B103" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D103" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H103" s="1">
         <v>43987</v>
@@ -3766,13 +3765,13 @@
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B104" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D104" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H104" s="1">
         <v>43988</v>
@@ -3798,13 +3797,13 @@
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B105" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D105" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H105" s="1">
         <v>43989</v>
@@ -3830,13 +3829,13 @@
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B106" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D106" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H106" s="1">
         <v>43990</v>
@@ -3862,13 +3861,13 @@
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B107" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D107" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H107" s="1">
         <v>43991</v>
@@ -3894,13 +3893,13 @@
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B108" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D108" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H108" s="1">
         <v>43992</v>
@@ -3926,13 +3925,13 @@
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B109" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D109" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H109" s="1">
         <v>43993</v>
@@ -3958,13 +3957,13 @@
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B110" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D110" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H110" s="1">
         <v>43994</v>
@@ -3990,13 +3989,13 @@
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B111" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D111" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H111" s="1">
         <v>43995</v>
@@ -4022,13 +4021,13 @@
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B112" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D112" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H112" s="1">
         <v>43996</v>
@@ -4054,13 +4053,13 @@
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B113" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D113" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H113" s="1">
         <v>43997</v>
@@ -4086,13 +4085,13 @@
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B114" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D114" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H114" s="1">
         <v>43998</v>
@@ -4118,13 +4117,13 @@
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B115" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D115" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H115" s="1">
         <v>43999</v>
@@ -4150,13 +4149,13 @@
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B116" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D116" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H116" s="1">
         <v>44000</v>
@@ -4182,13 +4181,13 @@
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B117" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D117" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H117" s="1">
         <v>44001</v>
@@ -4214,13 +4213,13 @@
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B118" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D118" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H118" s="1">
         <v>44002</v>
@@ -4246,13 +4245,13 @@
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B119" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D119" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H119" s="1">
         <v>44003</v>
@@ -4278,13 +4277,13 @@
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B120" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D120" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H120" s="1">
         <v>44004</v>
@@ -4310,13 +4309,13 @@
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B121" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D121" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H121" s="1">
         <v>44005</v>
@@ -4342,13 +4341,13 @@
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B122" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D122" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H122" s="1">
         <v>44006</v>
@@ -4374,13 +4373,13 @@
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B123" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D123" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H123" s="1">
         <v>44007</v>
@@ -4406,13 +4405,13 @@
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B124" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D124" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H124" s="1">
         <v>44008</v>
@@ -4438,13 +4437,13 @@
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B125" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D125" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H125" s="1">
         <v>44009</v>
@@ -4470,13 +4469,13 @@
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B126" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D126" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H126" s="1">
         <v>44010</v>
@@ -4502,13 +4501,13 @@
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B127" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D127" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H127" s="1">
         <v>44011</v>
@@ -4534,13 +4533,13 @@
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B128" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D128" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H128" s="1">
         <v>44012</v>
@@ -4566,13 +4565,13 @@
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B129" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D129" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H129" s="1">
         <v>44013</v>
@@ -4598,13 +4597,13 @@
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B130" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D130" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H130" s="1">
         <v>44014</v>
@@ -4630,13 +4629,13 @@
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B131" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D131" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H131" s="1">
         <v>44015</v>
@@ -4662,13 +4661,13 @@
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B132" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D132" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H132" s="1">
         <v>44016</v>
@@ -4694,13 +4693,13 @@
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B133" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D133" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H133" s="1">
         <v>44017</v>
@@ -4726,13 +4725,13 @@
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B134" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D134" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H134" s="1">
         <v>44018</v>
@@ -4758,13 +4757,13 @@
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B135" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D135" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H135" s="1">
         <v>44019</v>
@@ -4790,13 +4789,13 @@
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B136" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D136" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H136" s="1">
         <v>44020</v>
@@ -4822,13 +4821,13 @@
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B137" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D137" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H137" s="1">
         <v>44021</v>
@@ -4854,13 +4853,13 @@
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B138" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D138" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H138" s="1">
         <v>44022</v>
@@ -4886,13 +4885,13 @@
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B139" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D139" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H139" s="1">
         <v>44023</v>
@@ -4918,13 +4917,13 @@
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B140" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D140" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H140" s="1">
         <v>44024</v>
@@ -4950,13 +4949,13 @@
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B141" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D141" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H141" s="1">
         <v>44025</v>
@@ -4982,13 +4981,13 @@
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B142" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D142" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H142" s="1">
         <v>44026</v>
@@ -5014,13 +5013,13 @@
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B143" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D143" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H143" s="1">
         <v>44027</v>
@@ -5046,13 +5045,13 @@
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B144" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D144" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H144" s="1">
         <v>44028</v>
@@ -5078,13 +5077,13 @@
     </row>
     <row r="145" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B145" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D145" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H145" s="1">
         <v>44029</v>
@@ -5110,13 +5109,13 @@
     </row>
     <row r="146" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B146" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D146" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H146" s="1">
         <v>44030</v>
@@ -5142,13 +5141,13 @@
     </row>
     <row r="147" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B147" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D147" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H147" s="1">
         <v>44031</v>
@@ -5174,13 +5173,13 @@
     </row>
     <row r="148" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B148" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D148" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H148" s="1">
         <v>44032</v>
@@ -5206,13 +5205,13 @@
     </row>
     <row r="149" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B149" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D149" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H149" s="1">
         <v>44033</v>
@@ -5238,13 +5237,13 @@
     </row>
     <row r="150" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B150" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D150" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H150" s="1">
         <v>44034</v>
@@ -5270,13 +5269,13 @@
     </row>
     <row r="151" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B151" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D151" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H151" s="1">
         <v>44035</v>
@@ -5302,13 +5301,13 @@
     </row>
     <row r="152" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B152" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D152" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H152" s="1">
         <v>44036</v>
@@ -5334,13 +5333,13 @@
     </row>
     <row r="153" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B153" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D153" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H153" s="1">
         <v>44037</v>
@@ -5366,13 +5365,13 @@
     </row>
     <row r="154" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B154" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D154" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H154" s="1">
         <v>44038</v>
@@ -5398,13 +5397,13 @@
     </row>
     <row r="155" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B155" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D155" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H155" s="1">
         <v>44039</v>
@@ -5430,13 +5429,13 @@
     </row>
     <row r="156" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B156" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D156" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H156" s="1">
         <v>44040</v>
@@ -5462,13 +5461,13 @@
     </row>
     <row r="157" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B157" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D157" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H157" s="1">
         <v>44041</v>
@@ -5494,13 +5493,13 @@
     </row>
     <row r="158" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B158" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D158" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H158" s="1">
         <v>44042</v>
@@ -5526,13 +5525,13 @@
     </row>
     <row r="159" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B159" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D159" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H159" s="1">
         <v>44043</v>
@@ -5558,13 +5557,13 @@
     </row>
     <row r="160" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B160" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D160" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H160" s="1">
         <v>44044</v>
@@ -5590,13 +5589,13 @@
     </row>
     <row r="161" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B161" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D161" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H161" s="1">
         <v>44045</v>
@@ -5622,13 +5621,13 @@
     </row>
     <row r="162" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B162" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D162" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H162" s="1">
         <v>44046</v>
@@ -5654,13 +5653,13 @@
     </row>
     <row r="163" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B163" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D163" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H163" s="1">
         <v>44047</v>
@@ -5686,13 +5685,13 @@
     </row>
     <row r="164" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B164" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D164" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H164" s="1">
         <v>44048</v>
@@ -5718,13 +5717,13 @@
     </row>
     <row r="165" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B165" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D165" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H165" s="1">
         <v>44049</v>
@@ -5750,13 +5749,13 @@
     </row>
     <row r="166" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B166" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D166" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H166" s="1">
         <v>44050</v>
@@ -5782,13 +5781,13 @@
     </row>
     <row r="167" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B167" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D167" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H167" s="1">
         <v>44051</v>
@@ -5814,13 +5813,13 @@
     </row>
     <row r="168" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B168" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D168" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H168" s="1">
         <v>44052</v>
@@ -5846,13 +5845,13 @@
     </row>
     <row r="169" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B169" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D169" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H169" s="1">
         <v>44053</v>
@@ -5878,13 +5877,13 @@
     </row>
     <row r="170" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B170" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D170" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H170" s="1">
         <v>44054</v>
@@ -5910,13 +5909,13 @@
     </row>
     <row r="171" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B171" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D171" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H171" s="1">
         <v>44055</v>
@@ -5942,13 +5941,13 @@
     </row>
     <row r="172" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B172" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D172" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H172" s="1">
         <v>44056</v>
@@ -5974,13 +5973,13 @@
     </row>
     <row r="173" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B173" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D173" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H173" s="1">
         <v>44057</v>
@@ -6006,13 +6005,13 @@
     </row>
     <row r="174" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B174" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D174" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H174" s="1">
         <v>44058</v>
@@ -6038,13 +6037,13 @@
     </row>
     <row r="175" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B175" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D175" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H175" s="1">
         <v>44059</v>
@@ -6070,13 +6069,13 @@
     </row>
     <row r="176" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B176" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D176" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H176" s="1">
         <v>44060</v>
@@ -6102,13 +6101,13 @@
     </row>
     <row r="177" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B177" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D177" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H177" s="1">
         <v>44061</v>
@@ -6134,13 +6133,13 @@
     </row>
     <row r="178" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B178" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D178" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H178" s="1">
         <v>44062</v>
@@ -6166,13 +6165,13 @@
     </row>
     <row r="179" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B179" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D179" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H179" s="1">
         <v>44063</v>
@@ -6198,13 +6197,13 @@
     </row>
     <row r="180" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B180" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D180" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H180" s="1">
         <v>44064</v>
@@ -6230,13 +6229,13 @@
     </row>
     <row r="181" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B181" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D181" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H181" s="1">
         <v>44065</v>
@@ -6262,13 +6261,13 @@
     </row>
     <row r="182" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B182" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D182" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H182" s="1">
         <v>44066</v>
@@ -6294,13 +6293,13 @@
     </row>
     <row r="183" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B183" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D183" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H183" s="1">
         <v>44067</v>
@@ -6326,13 +6325,13 @@
     </row>
     <row r="184" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B184" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D184" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H184" s="1">
         <v>44068</v>
@@ -6358,13 +6357,13 @@
     </row>
     <row r="185" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B185" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D185" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H185" s="1">
         <v>44069</v>
@@ -6390,13 +6389,13 @@
     </row>
     <row r="186" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B186" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D186" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H186" s="1">
         <v>44070</v>
@@ -6422,13 +6421,13 @@
     </row>
     <row r="187" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B187" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D187" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H187" s="1">
         <v>44071</v>
@@ -6454,13 +6453,13 @@
     </row>
     <row r="188" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B188" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D188" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H188" s="1">
         <v>44072</v>
@@ -6486,13 +6485,13 @@
     </row>
     <row r="189" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B189" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D189" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H189" s="1">
         <v>44073</v>
@@ -6518,13 +6517,13 @@
     </row>
     <row r="190" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B190" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D190" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H190" s="1">
         <v>44074</v>
@@ -6550,13 +6549,13 @@
     </row>
     <row r="191" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B191" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D191" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H191" s="1">
         <v>44075</v>
@@ -6582,13 +6581,13 @@
     </row>
     <row r="192" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B192" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D192" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H192" s="1">
         <v>44076</v>
@@ -6614,13 +6613,13 @@
     </row>
     <row r="193" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B193" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D193" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H193" s="1">
         <v>44077</v>
@@ -6646,13 +6645,13 @@
     </row>
     <row r="194" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B194" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D194" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H194" s="1">
         <v>44078</v>
@@ -6678,13 +6677,13 @@
     </row>
     <row r="195" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B195" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D195" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H195" s="1">
         <v>44079</v>
@@ -6710,13 +6709,13 @@
     </row>
     <row r="196" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B196" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D196" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H196" s="1">
         <v>44080</v>
@@ -6742,13 +6741,13 @@
     </row>
     <row r="197" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B197" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D197" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H197" s="1">
         <v>44081</v>
@@ -6774,13 +6773,13 @@
     </row>
     <row r="198" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B198" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D198" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H198" s="1">
         <v>44082</v>
@@ -6806,13 +6805,13 @@
     </row>
     <row r="199" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B199" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D199" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H199" s="1">
         <v>44083</v>
